--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>4.75</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.40</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>75.42</t>
+          <t>88.12</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>82.92</t>
+          <t>95.62</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.80</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.96</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>5.65</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-2.42</t>
+          <t>-2.79</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>79270310</t>
+          <t>91410808</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>72102310</t>
+          <t>84242808</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -653,7 +653,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.21</t>
+          <t>10.27</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>25.27</t>
+          <t>25.31</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>13.54</t>
+          <t>13.51</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -693,22 +693,22 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>17.55</t>
+          <t>17.60</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>12.09</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>24.77</t>
+          <t>24.61</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>10.67</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -743,57 +743,57 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>19.96</t>
+          <t>19.93</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>39.90</t>
+          <t>40.14</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>10.39</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>20.50</t>
+          <t>20.59</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>16.34</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>16.86</t>
+          <t>16.89</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>25.68</t>
+          <t>25.73</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -823,17 +823,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>31.39</t>
+          <t>31.48</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>24.17</t>
+          <t>24.28</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>48.62</t>
+          <t>48.35</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -870,12 +870,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>17.55</t>
+          <t>17.09</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>10.64</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>17.78</t>
+          <t>17.51</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>23.23</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>12.09</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>22.15</t>
+          <t>21.81</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>16.86</t>
+          <t>16.89</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>31.68</t>
+          <t>31.70</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1275,28 +1275,28 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>19.02</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11.15</t>
+          <t>11.17</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1307,13 +1307,13 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>22.07</t>
+          <t>22.01</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>15.14</t>
+          <t>15.09</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -1324,12 +1324,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>14.64</t>
+          <t>14.73</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>13.64</t>
+          <t>13.68</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1344,38 +1344,38 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1408,17 +1408,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-70.16%</t>
+          <t>-70.54%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1460,22 +1460,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-17.57%</t>
+          <t>-17.49%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-19.61%</t>
+          <t>-19.13%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6.85%</t>
+          <t>7.02%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-4.58%</t>
+          <t>-4.79%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1485,22 +1485,22 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-74.17%</t>
+          <t>-73.76%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-24.87%</t>
+          <t>-21.39%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6.03%</t>
+          <t>5.08%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>39.93%</t>
+          <t>40.39%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>54.04%</t>
+          <t>53.05%</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-27.31%</t>
+          <t>-27.51%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1535,57 +1535,57 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>6.57%</t>
+          <t>6.41%</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>31.96%</t>
+          <t>33.44%</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-8.04%</t>
+          <t>-7.49%</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>16.05%</t>
+          <t>15.83%</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>3.48%</t>
+          <t>5.54%</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>27.54%</t>
+          <t>27.82%</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>15.64%</t>
+          <t>16.49%</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>-33.07%</t>
+          <t>-32.91%</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>-60.48%</t>
+          <t>-60.35%</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-33.33%</t>
+          <t>-32.88%</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>103.87%</t>
+          <t>104.23%</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>-33.33%</t>
+          <t>-33.06%</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>-12.80%</t>
+          <t>-12.63%</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1615,17 +1615,17 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>23.97%</t>
+          <t>24.33%</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>3.78%</t>
+          <t>4.25%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>-18.68%</t>
+          <t>-19.13%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>322204535.09</t>
+          <t>316412943.14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1527941.45</t>
+          <t>1501198.81</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2040,102 +2040,102 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>198743.64</t>
+          <t>198518.52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>64500905.68</t>
+          <t>57942782.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>413153797.05</t>
+          <t>386016892.67</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>469723238.73</t>
+          <t>429117255.33</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>554014803.18</t>
+          <t>523141509.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>146399379.36</t>
+          <t>142654130.90</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>9638963.23</t>
+          <t>9296498.19</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>110047411.91</t>
+          <t>106425371.71</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2496731.64</t>
+          <t>2471902.81</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>137011788.86</t>
+          <t>129355842.76</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>52483069.00</t>
+          <t>51660435.00</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>44005632.36</t>
+          <t>41925688.81</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>47407826.14</t>
+          <t>45107818.67</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>94866670.55</t>
+          <t>87188474.29</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>50600646.55</t>
+          <t>49434949.57</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>46965334.82</t>
+          <t>46226943.10</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>239538983.14</t>
+          <t>225652902.86</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>11018835.59</t>
+          <t>10920813.33</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>60811525.55</t>
+          <t>59676229.71</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>210604790.77</t>
+          <t>197162923.48</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2145,47 +2145,47 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>6250368.45</t>
+          <t>5979858.57</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>254402384.09</t>
+          <t>244889044.86</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>27515951.64</t>
+          <t>26539581.62</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>263213219.09</t>
+          <t>260206210.81</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>3019783.95</t>
+          <t>2994310.33</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>94002446.00</t>
+          <t>93326430.00</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>983101949.86</t>
+          <t>989187796.38</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>40106775.68</t>
+          <t>39211018.57</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>374551801.59</t>
+          <t>376028924.43</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -2200,27 +2200,27 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>9245134.82</t>
+          <t>8241588.48</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>39797835.95</t>
+          <t>38084770.29</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>321158.23</t>
+          <t>326006.48</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1206623922.45</t>
+          <t>1176624549.00</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>108534846.59</t>
+          <t>103119110.62</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20778694.45</t>
+          <t>20127362.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>102816527.00</t>
+          <t>100094699.29</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2397,12 +2397,12 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>77654767.05</t>
+          <t>74689359.90</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>60385017.14</t>
+          <t>52074041.38</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>0.455</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
@@ -2658,22 +2658,22 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>19.02%</t>
+          <t>19.00%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.93%</t>
+          <t>3.91%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9.97%</t>
+          <t>9.95%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11.15%</t>
+          <t>11.17%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2684,13 +2684,13 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>22.07%</t>
+          <t>22.01%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>15.14%</t>
+          <t>15.09%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -2701,12 +2701,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>14.64%</t>
+          <t>14.73%</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>13.64%</t>
+          <t>13.68%</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2721,18 +2721,18 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>4.86%</t>
+          <t>4.87%</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>1.50%</t>
+          <t>1.48%</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr">
         <is>
-          <t>6.60%</t>
+          <t>6.61%</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2742,17 +2742,17 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>9.26%</t>
+          <t>8.60%</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>3.96%</t>
+          <t>3.93%</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>1.72%</t>
+          <t>1.71%</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>6.42%</t>
+          <t>6.39%</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -2785,17 +2785,17 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>8.63%</t>
+          <t>8.61%</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>9.12%</t>
+          <t>9.08%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>5.70%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>-1.92</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.48%</t>
+          <t>4.90%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2837,22 +2837,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>14.51</t>
+          <t>14.53</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2867,17 +2867,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-9.35</t>
+          <t>-9.27</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-10.28</t>
+          <t>-10.26</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2912,57 +2912,57 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>18.60</t>
+          <t>18.81</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>6.41%</t>
+          <t>6.38%</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>171.64</t>
+          <t>172.06</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>18.19</t>
+          <t>18.25</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>-2.69</t>
+          <t>-2.71</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>66.73</t>
+          <t>66.85</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>32.50</t>
+          <t>32.63</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>6.26%</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -2992,17 +2992,17 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>12.99</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3134,12 +3134,12 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-3.21</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -3336,62 +3336,62 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
           <t>1.29</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>-0.43</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
@@ -3443,15 +3443,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-3.38</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>5.77</t>
@@ -3461,7 +3465,11 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -3477,27 +3485,35 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr">
         <is>
           <t>6.72</t>
@@ -3505,23 +3521,23 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr"/>
@@ -3531,10 +3547,14 @@
           <t>3.34</t>
         </is>
       </c>
-      <c r="AG16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -3549,7 +3569,7 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -3557,7 +3577,11 @@
           <t>5.50</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
       <c r="AN16" t="inlineStr">
         <is>
           <t>3.44</t>
@@ -3582,17 +3606,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14.66</t>
+          <t>14.69</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-8.59</t>
+          <t>-7.04</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3602,7 +3626,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3612,7 +3636,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>10.93</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3622,7 +3646,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-15.13</t>
+          <t>-15.14</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3632,12 +3656,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -3652,12 +3676,12 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -3667,22 +3691,22 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -3692,37 +3716,37 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>11.10</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>16.16</t>
+          <t>16.20</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>-2.58</t>
+          <t>-3.18</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>10.69</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -3732,12 +3756,12 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>14.54</t>
+          <t>14.36</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr"/>
@@ -3748,17 +3772,17 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>19.81</t>
+          <t>19.77</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
@@ -3785,15 +3809,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-1.41</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>4.46</t>
@@ -3803,7 +3831,11 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -3819,10 +3851,14 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
@@ -3836,29 +3872,33 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>13.31</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>9.74</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3873,7 +3913,11 @@
           <t>2.10</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
       <c r="AH18" t="inlineStr">
         <is>
           <t>4.23</t>
@@ -3881,7 +3925,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -3891,15 +3935,19 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr"/>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
       <c r="AN18" t="inlineStr">
         <is>
           <t>2.86</t>
@@ -3924,7 +3972,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3944,7 +3992,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>9.67</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3954,7 +4002,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11.59</t>
+          <t>11.57</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3964,22 +4012,22 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-3.62</t>
+          <t>-3.59</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -3994,87 +4042,87 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>-3.52</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
           <t>2.96</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>10.73</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>12.08</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>20.45</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>-3.49</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4090,17 +4138,17 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>18.07</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
@@ -4127,7 +4175,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17.62</t>
+          <t>16.70</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4137,7 +4185,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4162,7 +4210,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4182,7 +4230,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -4202,7 +4250,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>10.59</t>
+          <t>10.12</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -4212,7 +4260,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>13.56</t>
+          <t>13.23</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -4222,22 +4270,22 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>10.23</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>55.78</t>
+          <t>58.17</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -4267,7 +4315,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
@@ -4282,12 +4330,12 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>23.68</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
@@ -4307,7 +4355,7 @@
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>23.65</t>
+          <t>24.41</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
@@ -4339,144 +4387,144 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24.65</t>
+          <t>25.60</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
           <t>0.19</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
         <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
       <c r="AF21" t="inlineStr">
         <is>
           <t>0.46</t>
@@ -4489,7 +4537,7 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
@@ -4514,7 +4562,7 @@
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
@@ -4748,7 +4796,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4768,7 +4816,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4790,7 +4838,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -4810,7 +4858,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -4841,7 +4889,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>13.24</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -4856,7 +4904,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -4911,12 +4959,12 @@
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
@@ -4943,7 +4991,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4953,7 +5001,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4963,7 +5011,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4978,7 +5026,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-430.38</t>
+          <t>16.69</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4988,17 +5036,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>28.69</t>
+          <t>28.77</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>-61.26</t>
+          <t>51.26</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -5013,12 +5061,12 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -5028,7 +5076,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>26.18</t>
+          <t>209.68</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -5038,22 +5086,22 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>15.12</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -5063,12 +5111,12 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -5078,12 +5126,12 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
@@ -5093,12 +5141,12 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>18.59</t>
+          <t>27.99</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
@@ -5113,12 +5161,12 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
@@ -5155,7 +5203,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5170,7 +5218,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-1.87</t>
+          <t>-1.88</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -5185,7 +5233,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-4.96</t>
+          <t>-5.70</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -5200,77 +5248,77 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>-1.80</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>-0.74</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>-0.73</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>-3.45</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
           <t>-0.79</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>-0.13</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>-0.64</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>-0.74</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>-3.45</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>-0.83</t>
-        </is>
-      </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>-3.32</t>
+          <t>-3.33</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -5285,7 +5333,7 @@
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
@@ -5305,7 +5353,7 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr"/>
@@ -5316,7 +5364,7 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>-3.48</t>
+          <t>-3.49</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
@@ -5326,7 +5374,7 @@
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
@@ -5353,15 +5401,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-0.39</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>-0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>0.25</t>
@@ -5369,7 +5421,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -5392,7 +5444,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -5412,7 +5464,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -5422,7 +5474,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -5432,7 +5484,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -5468,12 +5520,12 @@
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
@@ -5488,7 +5540,7 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
@@ -5513,7 +5565,7 @@
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
@@ -5540,15 +5592,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-1.97</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>1.31</t>
@@ -5558,7 +5614,11 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -5577,11 +5637,15 @@
           <t>1.79</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -5591,13 +5655,13 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -5628,10 +5692,14 @@
           <t>1.14</t>
         </is>
       </c>
-      <c r="AG27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr"/>
@@ -5650,7 +5718,11 @@
           <t>1.86</t>
         </is>
       </c>
-      <c r="AM27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
       <c r="AN27" t="inlineStr">
         <is>
           <t>0.57</t>
@@ -5675,17 +5747,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.24</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-5.65</t>
+          <t>-4.10</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5695,7 +5767,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -5718,7 +5790,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -5738,7 +5810,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -5748,7 +5820,7 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -5758,13 +5830,13 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -5794,12 +5866,12 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
@@ -5814,7 +5886,7 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr"/>
@@ -5835,7 +5907,7 @@
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
@@ -5862,107 +5934,107 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
           <t>0.30</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>0.29</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -6038,7 +6110,7 @@
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
@@ -6065,109 +6137,109 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
           <t>0.70</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
       <c r="X30" t="inlineStr">
         <is>
           <t>0.19</t>
@@ -6245,7 +6317,7 @@
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
@@ -6272,19 +6344,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>0.63</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>1.93</t>
@@ -6292,7 +6364,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -6307,7 +6379,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -6327,7 +6399,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -6347,7 +6419,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -6357,7 +6429,7 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -6367,17 +6439,17 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -6407,12 +6479,12 @@
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
@@ -6427,7 +6499,7 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
@@ -6452,7 +6524,7 @@
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
@@ -6484,7 +6556,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -6678,7 +6750,11 @@
           <t>74.61%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>-28.45%</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>35.70%</t>
@@ -6688,7 +6764,11 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2.11%</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -6707,7 +6787,11 @@
           <t>36.03%</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>18.52%</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
@@ -6724,7 +6808,11 @@
           <t>13.06%</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>9.87%</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr">
         <is>
           <t>204.87%</t>
@@ -6758,7 +6846,11 @@
           <t>45.89%</t>
         </is>
       </c>
-      <c r="AG33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>12.26%</t>
+        </is>
+      </c>
       <c r="AH33" t="inlineStr">
         <is>
           <t>32.47%</t>
@@ -6784,7 +6876,11 @@
           <t>67.98%</t>
         </is>
       </c>
-      <c r="AM33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>13.39%</t>
+        </is>
+      </c>
       <c r="AN33" t="inlineStr">
         <is>
           <t>42.81%</t>
@@ -7195,7 +7291,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-16.04%</t>
+          <t>-16.91%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -7205,7 +7301,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-300.79%</t>
+          <t>-155.67%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -7215,7 +7311,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>22.55%</t>
+          <t>22.53%</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -7230,7 +7326,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>84.64%</t>
+          <t>69.51%</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -7250,7 +7346,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>24.77%</t>
+          <t>23.55%</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -7270,7 +7366,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>-9.82%</t>
+          <t>-10.28%</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -7280,7 +7376,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>37.59%</t>
+          <t>38.51%</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -7290,17 +7386,17 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>4.17%</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>11.28%</t>
+          <t>10.82%</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>16.80%</t>
+          <t>16.24%</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -7330,12 +7426,12 @@
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>-14.37%</t>
+          <t>-14.39%</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>4.06%</t>
+          <t>4.25%</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
@@ -7350,7 +7446,7 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>6.64%</t>
+          <t>6.56%</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
@@ -7375,7 +7471,7 @@
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>15.82%</t>
+          <t>15.33%</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
@@ -7402,17 +7498,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-4.80%</t>
+          <t>-4.90%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12.76%</t>
+          <t>12.29%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-18.25%</t>
+          <t>-21.57%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -7422,7 +7518,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>9.29%</t>
+          <t>9.36%</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -7437,7 +7533,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>44.78%</t>
+          <t>44.32%</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -7457,7 +7553,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>11.65%</t>
+          <t>10.49%</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -7477,7 +7573,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>-1.48%</t>
+          <t>-1.42%</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -7487,7 +7583,7 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>8.95%</t>
+          <t>8.62%</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -7497,17 +7593,17 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>1.61%</t>
+          <t>1.65%</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>3.24%</t>
+          <t>3.23%</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>12.98%</t>
+          <t>12.55%</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -7537,7 +7633,7 @@
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>-8.60%</t>
+          <t>-8.65%</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
@@ -7557,7 +7653,7 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
@@ -7582,7 +7678,7 @@
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>5.92%</t>
+          <t>5.58%</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
@@ -7609,17 +7705,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.11%</t>
+          <t>1.18%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3.31%</t>
+          <t>3.32%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-23.70%</t>
+          <t>-20.86%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -7629,7 +7725,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13.20%</t>
+          <t>13.14%</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -7652,7 +7748,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>21.48%</t>
+          <t>19.50%</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -7672,7 +7768,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>6.69%</t>
+          <t>6.73%</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -7682,7 +7778,7 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>18.34%</t>
+          <t>17.59%</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -7692,13 +7788,13 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>7.87%</t>
+          <t>8.49%</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr">
         <is>
-          <t>15.17%</t>
+          <t>14.52%</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -7728,12 +7824,12 @@
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>-9.66%</t>
+          <t>-9.89%</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>4.61%</t>
+          <t>4.77%</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
@@ -7748,7 +7844,7 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>7.97%</t>
+          <t>8.04%</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
@@ -7773,7 +7869,7 @@
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>4.69%</t>
+          <t>4.39%</t>
         </is>
       </c>
       <c r="AN38" t="inlineStr">
@@ -7800,154 +7896,154 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.62%</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>7.32%</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
           <t>0.48</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>10.80%</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>7.32%</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="AE39" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="AF39" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
       <c r="AG39" t="inlineStr">
         <is>
           <t>1.89</t>
@@ -7955,7 +8051,7 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr"/>
@@ -7976,7 +8072,7 @@
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="AN39" t="inlineStr">
@@ -8008,7 +8104,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8353,7 +8449,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1094390000</t>
+          <t>1037685000</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -8363,7 +8459,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-144137000</t>
+          <t>278507000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -8373,7 +8469,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>19129636000</t>
+          <t>19145192000</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -8388,7 +8484,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>10061717000</t>
+          <t>12251901000</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -8408,7 +8504,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>26672836000</t>
+          <t>28060032000</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -8428,7 +8524,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>14048363000</t>
+          <t>13418340000</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -8438,7 +8534,7 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>11061451000</t>
+          <t>10797402000</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
@@ -8448,17 +8544,17 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>5108983000</t>
+          <t>5155645000</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>4588742000</t>
+          <t>4785347000</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>83551000000</t>
+          <t>86463000000</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -8488,12 +8584,12 @@
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>3093446000</t>
+          <t>3089553000</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>5642439000</t>
+          <t>5383429000</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
@@ -8508,7 +8604,7 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>25330545000</t>
+          <t>25638668000</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
@@ -8533,7 +8629,7 @@
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>2676568000</t>
+          <t>2762977000</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
@@ -8560,17 +8656,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3654948000</t>
+          <t>3580115000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7814087000</t>
+          <t>8114359000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2376255000</t>
+          <t>2010006000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -8580,7 +8676,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>46444945000</t>
+          <t>46068083000</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8595,7 +8691,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>19018963000</t>
+          <t>19213887000</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -8615,7 +8711,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>56740773000</t>
+          <t>63006898000</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -8635,7 +8731,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>93423377000</t>
+          <t>96877650000</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -8645,7 +8741,7 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>46436727000</t>
+          <t>48260956000</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
@@ -8655,17 +8751,17 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>13368371000</t>
+          <t>13028569000</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>15982137000</t>
+          <t>16009026000</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>108172000000</t>
+          <t>111898000000</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -8695,12 +8791,12 @@
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>5169731000</t>
+          <t>5137095000</t>
         </is>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>138374150000</t>
+          <t>134858914000</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
@@ -8715,7 +8811,7 @@
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>81040741000</t>
+          <t>82593685000</t>
         </is>
       </c>
       <c r="AI43" t="inlineStr">
@@ -8740,7 +8836,7 @@
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>7158097000</t>
+          <t>7582968000</t>
         </is>
       </c>
       <c r="AN43" t="inlineStr">
@@ -8767,17 +8863,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2367105000</t>
+          <t>2285015000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>30088771000</t>
+          <t>30002997000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>934154000</t>
+          <t>569416000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -8787,7 +8883,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16781627000</t>
+          <t>16434207000</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8802,7 +8898,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>5503218000</t>
+          <t>7454252000</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -8822,7 +8918,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>13062465000</t>
+          <t>16272739000</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -8842,7 +8938,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>31961190000</t>
+          <t>34892551000</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -8852,7 +8948,7 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>7630154000</t>
+          <t>7310767000</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -8862,17 +8958,17 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>8379154000</t>
+          <t>8093561000</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>4512809000</t>
+          <t>4990058000</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>12808000000</t>
+          <t>13520000000</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -8902,12 +8998,12 @@
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>3766981000</t>
+          <t>3746034000</t>
         </is>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>57031968000</t>
+          <t>54567028000</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
@@ -8922,7 +9018,7 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>18971562000</t>
+          <t>19687842000</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
@@ -8947,7 +9043,7 @@
       </c>
       <c r="AM44" t="inlineStr">
         <is>
-          <t>3374105000</t>
+          <t>3633307000</t>
         </is>
       </c>
       <c r="AN44" t="inlineStr">
@@ -8974,17 +9070,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1543679000</t>
+          <t>1453382000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6401195000</t>
+          <t>6175583000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>982678000</t>
+          <t>673963000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -8994,7 +9090,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12758723000</t>
+          <t>12878346000</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -9017,7 +9113,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>11643438000</t>
+          <t>14134273000</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9037,7 +9133,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>50867203000</t>
+          <t>51631661000</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -9047,7 +9143,7 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>21262808000</t>
+          <t>22945874000</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
@@ -9057,13 +9153,13 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>2644054000</t>
+          <t>2034465000</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr">
         <is>
-          <t>11699000000</t>
+          <t>13181000000</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -9093,12 +9189,12 @@
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>708908000</t>
+          <t>625086000</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>61333671000</t>
+          <t>58546705000</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
@@ -9113,7 +9209,7 @@
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>44020577000</t>
+          <t>43156553000</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
@@ -9138,7 +9234,7 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>2508893000</t>
+          <t>2782982000</t>
         </is>
       </c>
       <c r="AN45" t="inlineStr">
@@ -9165,17 +9261,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>977427000</t>
+          <t>881323000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12479991000</t>
+          <t>12316629000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>96886000</t>
+          <t>31384000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -9185,7 +9281,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15147668000</t>
+          <t>14873101000</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -9200,7 +9296,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>4286950000</t>
+          <t>6186125000</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -9220,7 +9316,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2917341000</t>
+          <t>6621236000</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -9240,7 +9336,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>16838421000</t>
+          <t>19480797000</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -9250,7 +9346,7 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>4211142000</t>
+          <t>4049171000</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
@@ -9260,17 +9356,17 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>1739262000</t>
+          <t>1164791000</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>3924053000</t>
+          <t>3397603000</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>7646000000</t>
+          <t>8976000000</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -9300,12 +9396,12 @@
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>1022619000</t>
+          <t>739899000</t>
         </is>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>21964855000</t>
+          <t>19850373000</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
@@ -9320,7 +9416,7 @@
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>11394710000</t>
+          <t>11526254000</t>
         </is>
       </c>
       <c r="AI46" t="inlineStr"/>
@@ -9341,7 +9437,7 @@
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>2018495000</t>
+          <t>2303431000</t>
         </is>
       </c>
       <c r="AN46" t="inlineStr">
@@ -9368,17 +9464,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>566252000</t>
+          <t>572059000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3757010000</t>
+          <t>3509100000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>885792000</t>
+          <t>642579000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -9388,7 +9484,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-2388945000</t>
+          <t>-1994755000</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -9411,7 +9507,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>8726097000</t>
+          <t>7513037000</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -9431,7 +9527,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>34028782000</t>
+          <t>32150864000</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -9441,7 +9537,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>17051666000</t>
+          <t>18896703000</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -9451,13 +9547,13 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>904792000</t>
+          <t>869674000</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr">
         <is>
-          <t>4053000000</t>
+          <t>4205000000</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -9487,12 +9583,12 @@
       </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>-313711000</t>
+          <t>-114813000</t>
         </is>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>39368816000</t>
+          <t>38696332000</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
@@ -9507,7 +9603,7 @@
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>32625867000</t>
+          <t>31630299000</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
@@ -9532,7 +9628,7 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>490398000</t>
+          <t>479551000</t>
         </is>
       </c>
       <c r="AN47" t="inlineStr">
@@ -9559,12 +9655,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>341039876</t>
+          <t>336691462</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8722981000</t>
+          <t>8807529000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9574,22 +9670,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10493275960</t>
+          <t>10503779740</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>55404565000</t>
+          <t>55730155000</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>144818176191</t>
+          <t>145047409552</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>136419346146</t>
+          <t>135833565806</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -9599,22 +9695,22 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>362281459</t>
+          <t>367986678</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>6773274698</t>
+          <t>6777750640</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>291145345</t>
+          <t>288530267</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>37889653684</t>
+          <t>37937162826</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -9629,12 +9725,12 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>9418868519</t>
+          <t>9358028028</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>14189205233</t>
+          <t>14149422414</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -9649,22 +9745,22 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>40988989197</t>
+          <t>40861828915</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>3998592000</t>
+          <t>4043520000</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>3282294179</t>
+          <t>3302037302</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>107728993711</t>
+          <t>107557923745</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -9674,32 +9770,32 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>1829730008</t>
+          <t>1833720695</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>15739129066</t>
+          <t>15854716305</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>2347236613</t>
+          <t>2352865478</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>6658347184</t>
+          <t>6680517042</t>
         </is>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>1197987269</t>
+          <t>1206192661</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>15275160000</t>
+          <t>15302340000</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
@@ -9709,7 +9805,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>25053072951</t>
+          <t>25156598046</t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
@@ -9725,17 +9821,17 @@
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>2071831502</t>
+          <t>2077771764</t>
         </is>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
-          <t>17622439734</t>
+          <t>17666543747</t>
         </is>
       </c>
       <c r="AM48" t="inlineStr">
         <is>
-          <t>5509154349</t>
+          <t>5507501786</t>
         </is>
       </c>
       <c r="AN48" t="inlineStr">
@@ -9762,7 +9858,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>907291876</t>
+          <t>908750462</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -9772,27 +9868,27 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1347902439</t>
+          <t>1104689439</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>13581936960</t>
+          <t>13592440740</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>53015620000</t>
+          <t>53735400000</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>144818176191</t>
+          <t>145047409552</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>136419346146</t>
+          <t>135833565806</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -9802,22 +9898,22 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>7321281459</t>
+          <t>7326986678</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>6478543698</t>
+          <t>6483019640</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>-159401655</t>
+          <t>-162016733</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>46615750684</t>
+          <t>45450199826</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -9832,12 +9928,12 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>14488144519</t>
+          <t>14427304028</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>48217987233</t>
+          <t>46300286414</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -9847,62 +9943,62 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>49256333898</t>
+          <t>51101370898</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>44690206197</t>
+          <t>44563045915</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>4903384000</t>
+          <t>4913194000</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>3282294179</t>
+          <t>3302037302</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>111781993711</t>
+          <t>111762923745</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>25336696327</t>
+          <t>25447930604</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>1744409008</t>
+          <t>1748399695</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>14345613066</t>
+          <t>14461200305</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>1854566613</t>
+          <t>1860195478</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>9692798184</t>
+          <t>9714968042</t>
         </is>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>884276269</t>
+          <t>1091379661</t>
         </is>
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>54643976000</t>
+          <t>53998672000</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
@@ -9912,17 +10008,17 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>57397923951</t>
+          <t>57501449046</t>
         </is>
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>81127275256</t>
+          <t>80131707256</t>
         </is>
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>96281138695</t>
+          <t>96468601971</t>
         </is>
       </c>
       <c r="AJ49" t="inlineStr">
@@ -9932,17 +10028,17 @@
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>1973000502</t>
+          <t>1978940764</t>
         </is>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
-          <t>26652967734</t>
+          <t>26697071747</t>
         </is>
       </c>
       <c r="AM49" t="inlineStr">
         <is>
-          <t>5999552349</t>
+          <t>5987052786</t>
         </is>
       </c>
       <c r="AN49" t="inlineStr">
@@ -9975,7 +10071,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>17841601160</t>
+          <t>17926149160</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -10080,7 +10176,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>54279138327</t>
+          <t>54390372604</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -10130,7 +10226,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>96281138695</t>
+          <t>96468601971</t>
         </is>
       </c>
       <c r="AJ50" t="inlineStr">
@@ -10544,7 +10640,7 @@
       </c>
       <c r="AM52" t="inlineStr">
         <is>
-          <t>55.61%</t>
+          <t>55.08%</t>
         </is>
       </c>
       <c r="AN52" t="inlineStr">
